--- a/medicine/Mort/Cimetière_Piatnitskoïe/Cimetière_Piatnitskoïe.xlsx
+++ b/medicine/Mort/Cimetière_Piatnitskoïe/Cimetière_Piatnitskoïe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Piatnitsko%C3%AFe</t>
+          <t>Cimetière_Piatnitskoïe</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière Piatnitskoïe est un cimetière situé dans le raïon Alekseïevski dépendant du district administratif nord-est de Moscou, la capitale de Russie. 
 C'est un des lieux de repos les plus anciens et les plus grands de la ville. Sa superficie s'étend sur 0,141 kilomètres2.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Piatnitsko%C3%AFe</t>
+          <t>Cimetière_Piatnitskoïe</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière Piatnitskoïe est fondé après l'épidémie de peste de 1771, par le décret de Catherine II du 24 mars 1771[1]. Le nom du cimetière et de la petite église, construite à l'origine en bois sur la route de la Trinité, rendent hommage à sainte Parascheva des Balkans, aussi appelée Parascheva Piatnitsa. En 1830, à la place de l'église en bois, l’architecte Afanassi Grigoriev (en) construit une église en pierre dédiée à la Trinité. En 1915, on construit également sur le territoire du cimetière l'église consacrée à Saint Siméon évêque de Perse, œuvre de l'architecte Nikolaï Blagovechtchenski.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière Piatnitskoïe est fondé après l'épidémie de peste de 1771, par le décret de Catherine II du 24 mars 1771. Le nom du cimetière et de la petite église, construite à l'origine en bois sur la route de la Trinité, rendent hommage à sainte Parascheva des Balkans, aussi appelée Parascheva Piatnitsa. En 1830, à la place de l'église en bois, l’architecte Afanassi Grigoriev (en) construit une église en pierre dédiée à la Trinité. En 1915, on construit également sur le territoire du cimetière l'église consacrée à Saint Siméon évêque de Perse, œuvre de l'architecte Nikolaï Blagovechtchenski.
 Au sud du territoire principal du cimetière, à côté de l'entrée de la station de métro Rijskaïa, il y avait une section représentée sur la carte topographique de Moscou, dessinée dans les années 1818-1823, apparemment destinée à l'enterrement des citoyens morts pendant les épidémies. À l'heure actuelle, cette section n'existe plus, et, à sa place est tracée l'impasse Nicolas et se dresse le Musée du chemin de fer de Moscou.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_Piatnitsko%C3%AFe</t>
+          <t>Cimetière_Piatnitskoïe</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
